--- a/paper-supplement/tables/supplemental-table-9.xlsx
+++ b/paper-supplement/tables/supplemental-table-9.xlsx
@@ -572,16 +572,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>25.3227916852277</v>
+        <v>62.065151955695</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6613958426138</v>
+        <v>31.0325759778475</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12513043589824</v>
+        <v>11.3912769896483</v>
       </c>
       <c r="F2" t="n">
-        <v>0.332100026694397</v>
+        <v>0.000364602740562474</v>
       </c>
     </row>
     <row r="3">
@@ -592,16 +592,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>363.682763523469</v>
+        <v>705.784093349603</v>
       </c>
       <c r="D3" t="n">
-        <v>363.682763523469</v>
+        <v>705.784093349603</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3179648861973</v>
+        <v>259.075563303938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000000543028026333696</v>
+        <v>0.0000000000000517563801085516</v>
       </c>
     </row>
     <row r="4">
@@ -612,16 +612,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.29715813873147</v>
+        <v>4.49772371913273</v>
       </c>
       <c r="D4" t="n">
-        <v>1.14857906936574</v>
+        <v>2.24886185956636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.102066255967579</v>
+        <v>0.825500544075453</v>
       </c>
       <c r="F4" t="n">
-        <v>0.903143499761814</v>
+        <v>0.450580781840341</v>
       </c>
     </row>
     <row r="5">
@@ -629,13 +629,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>607.676544591299</v>
+        <v>62.6575271709314</v>
       </c>
       <c r="D5" t="n">
-        <v>11.2532693442833</v>
+        <v>2.72424031177963</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -676,13 +676,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0000000000000035527136788005</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.95553293771943</v>
+        <v>-3.62151293260272</v>
       </c>
       <c r="D2" t="n">
-        <v>4.95553293771943</v>
+        <v>3.62151293260273</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2.17347228119022</v>
+        <v>4.34694456238044</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.87270341913242</v>
+        <v>1.38999163512478</v>
       </c>
       <c r="D3" t="n">
-        <v>6.21964798151286</v>
+        <v>7.30389748963611</v>
       </c>
       <c r="E3" t="n">
-        <v>0.610439730397821</v>
+        <v>0.00171071134637557</v>
       </c>
     </row>
     <row r="4">
@@ -710,16 +710,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>5.00743562131496</v>
+        <v>10.1182410022703</v>
       </c>
       <c r="C4" t="n">
-        <v>0.961259920992321</v>
+        <v>7.01696260854196</v>
       </c>
       <c r="D4" t="n">
-        <v>9.0536113216376</v>
+        <v>13.2195193959987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00728548977242516</v>
+        <v>0.00000000855149040468461</v>
       </c>
     </row>
     <row r="5">
@@ -727,16 +727,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>4.63782969221558</v>
+        <v>9.27565938443116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.591653991892935</v>
+        <v>6.31870645717549</v>
       </c>
       <c r="D5" t="n">
-        <v>8.68400539253822</v>
+        <v>12.2326123116868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0158804750628644</v>
+        <v>0.0000000178685309881743</v>
       </c>
     </row>
     <row r="6">
@@ -744,16 +744,16 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>7.86327886042757</v>
+        <v>15.7265577208551</v>
       </c>
       <c r="C6" t="n">
-        <v>2.90774592270814</v>
+        <v>12.1050447882524</v>
       </c>
       <c r="D6" t="n">
-        <v>12.818811798147</v>
+        <v>19.3480706534579</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00026603212522891</v>
+        <v>0.0000000000299815727800024</v>
       </c>
     </row>
     <row r="7">
@@ -761,16 +761,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>2.17347228119022</v>
+        <v>4.34694456238044</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.78206065652921</v>
+        <v>0.725431629777714</v>
       </c>
       <c r="D7" t="n">
-        <v>7.12900521890965</v>
+        <v>7.96845749498317</v>
       </c>
       <c r="E7" t="n">
-        <v>0.785995127406789</v>
+        <v>0.0124904154519605</v>
       </c>
     </row>
     <row r="8">
@@ -778,16 +778,16 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>5.00743562131496</v>
+        <v>10.1182410022703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0519026835955358</v>
+        <v>6.37795852865829</v>
       </c>
       <c r="D8" t="n">
-        <v>9.96296855903439</v>
+        <v>13.8585234758824</v>
       </c>
       <c r="E8" t="n">
-        <v>0.046268086474727</v>
+        <v>0.00000025915481938199</v>
       </c>
     </row>
     <row r="9">
@@ -795,16 +795,16 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>4.63782969221558</v>
+        <v>9.27565938443115</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.31770324550385</v>
+        <v>5.65414645182843</v>
       </c>
       <c r="D9" t="n">
-        <v>9.593362629935</v>
+        <v>12.8971723170339</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0790323049514555</v>
+        <v>0.000000665073426775464</v>
       </c>
     </row>
     <row r="10">
@@ -812,16 +812,16 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>7.86327886042757</v>
+        <v>15.7265577208551</v>
       </c>
       <c r="C10" t="n">
-        <v>2.14112230928684</v>
+        <v>11.5447947878314</v>
       </c>
       <c r="D10" t="n">
-        <v>13.5854354115683</v>
+        <v>19.9083206538789</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00210866585993774</v>
+        <v>0.000000000548306289260836</v>
       </c>
     </row>
     <row r="11">
@@ -829,16 +829,16 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.83396334012474</v>
+        <v>5.77129643988989</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.2122123601979</v>
+        <v>2.67001804616151</v>
       </c>
       <c r="D11" t="n">
-        <v>6.88013904044738</v>
+        <v>8.87257483361826</v>
       </c>
       <c r="E11" t="n">
-        <v>0.318533185977205</v>
+        <v>0.0000921208411119867</v>
       </c>
     </row>
     <row r="12">
@@ -846,16 +846,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>2.46435741102536</v>
+        <v>4.92871482205071</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.58181828929728</v>
+        <v>1.97176189479504</v>
       </c>
       <c r="D12" t="n">
-        <v>6.510533111348</v>
+        <v>7.88566774930638</v>
       </c>
       <c r="E12" t="n">
-        <v>0.47471485669656</v>
+        <v>0.000391082736923787</v>
       </c>
     </row>
     <row r="13">
@@ -863,16 +863,16 @@
         <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>5.68980657923735</v>
+        <v>11.3796131584747</v>
       </c>
       <c r="C13" t="n">
-        <v>0.734273641517925</v>
+        <v>7.75810022587198</v>
       </c>
       <c r="D13" t="n">
-        <v>10.6453395169568</v>
+        <v>15.0011260910774</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0156261965127458</v>
+        <v>0.0000000173125003222196</v>
       </c>
     </row>
     <row r="14">
@@ -880,16 +880,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.369605929099386</v>
+        <v>-0.842581617839175</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.41578162942203</v>
+        <v>-3.94386001156755</v>
       </c>
       <c r="D14" t="n">
-        <v>3.67656977122325</v>
+        <v>2.2586967758892</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999794702027567</v>
+        <v>0.955994609712562</v>
       </c>
     </row>
     <row r="15">
@@ -897,16 +897,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>2.85584323911261</v>
+        <v>5.60831671858482</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.09968969860682</v>
+        <v>1.86803424497278</v>
       </c>
       <c r="D15" t="n">
-        <v>7.81137617683203</v>
+        <v>9.34859919219685</v>
       </c>
       <c r="E15" t="n">
-        <v>0.536092956959725</v>
+        <v>0.00137293117347492</v>
       </c>
     </row>
     <row r="16">
@@ -914,16 +914,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>3.22544916821199</v>
+        <v>6.45089833642399</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.73008376950743</v>
+        <v>2.82938540382126</v>
       </c>
       <c r="D16" t="n">
-        <v>8.18098210593142</v>
+        <v>10.0724112690267</v>
       </c>
       <c r="E16" t="n">
-        <v>0.399743537097984</v>
+        <v>0.000166334440048432</v>
       </c>
     </row>
   </sheetData>
